--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -5,16 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Paragon-IU/Year 2 S1/CS 201 - Data Structures/hws/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/hash_table_experiments_with_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4D13AF-D667-1244-AF4F-169218652F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81486C6-347E-D448-BAE8-6953106A066A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$36</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$37:$A$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$36</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$37:$B$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$36</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$37:$B$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$36</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$37:$A$41</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$36</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$37:$B$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$37:$A$41</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>All avg in 10 times with random string size of 100 characters per element</t>
   </si>
@@ -67,6 +81,15 @@
   </si>
   <si>
     <t>random_searching(), then remove one and then searching (ms)</t>
+  </si>
+  <si>
+    <t>random_searching(), then remove one and then deletion (ms)</t>
+  </si>
+  <si>
+    <t>Insertion with Tombstone (ms)</t>
+  </si>
+  <si>
+    <t>Insertion with Rehash (ms)</t>
   </si>
 </sst>
 </file>
@@ -460,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E6911-EAE5-CC40-BC10-4C97D05DCEEB}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -772,13 +795,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -789,10 +812,10 @@
         <v>6.73985E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>6.4954600000000001E-2</v>
+        <v>7.1205400000000002E-2</v>
       </c>
       <c r="D29" s="2">
-        <v>7.1205400000000002E-2</v>
+        <v>0.24932399999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -803,10 +826,10 @@
         <v>1.68479</v>
       </c>
       <c r="C30" s="2">
-        <v>1.8884399999999999</v>
+        <v>2.23122</v>
       </c>
       <c r="D30" s="2">
-        <v>2.23122</v>
+        <v>33.369999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -817,10 +840,10 @@
         <v>42.8962</v>
       </c>
       <c r="C31" s="2">
-        <v>154.565</v>
+        <v>146.471</v>
       </c>
       <c r="D31" s="2">
-        <v>146.471</v>
+        <v>8786.3799999999992</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -831,10 +854,10 @@
         <v>242.756</v>
       </c>
       <c r="C32" s="2">
-        <v>920.30700000000002</v>
+        <v>874.47699999999998</v>
       </c>
       <c r="D32" s="2">
-        <v>874.47699999999998</v>
+        <v>111378</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -845,20 +868,83 @@
         <v>923.072</v>
       </c>
       <c r="C33" s="2">
-        <v>3815.35</v>
+        <v>3492.45</v>
       </c>
       <c r="D33" s="2">
-        <v>3492.45</v>
+        <v>802344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9.7114699999999998E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6.73985E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.40456</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.68479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B39" s="1">
+        <v>80.967699999999994</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42.8962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B40" s="1">
+        <v>482.85199999999998</v>
+      </c>
+      <c r="C40" s="1">
+        <v>242.756</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1899.09</v>
+      </c>
+      <c r="C41" s="1">
+        <v>923.072</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/hash_table_experiments_with_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond MLD\Desktop\hash_table_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81486C6-347E-D448-BAE8-6953106A066A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D2EF9E-3943-432D-8D7F-27613F304373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$36</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$37:$A$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$36</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$37:$B$41</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$36</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$37:$B$41</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$36</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$37:$A$41</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$36</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$37:$B$41</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$37:$A$41</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>All avg in 10 times with random string size of 100 characters per element</t>
   </si>
@@ -69,9 +55,6 @@
   </si>
   <si>
     <t>Double Hashing Rehash:</t>
-  </si>
-  <si>
-    <t>Deletion with search one and delete one (ms)</t>
   </si>
   <si>
     <t>Linear Probing Tombstone:</t>
@@ -96,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,11 +146,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,39 +468,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E6911-EAE5-CC40-BC10-4C97D05DCEEB}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="9" width="26.33203125" customWidth="1"/>
+    <col min="3" max="9" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,7 +514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -545,7 +528,7 @@
         <v>5.6904200000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -559,7 +542,7 @@
         <v>1.1275500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000</v>
       </c>
@@ -573,7 +556,7 @@
         <v>70.989400000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>2500</v>
       </c>
@@ -587,7 +570,7 @@
         <v>402.05099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>5000</v>
       </c>
@@ -601,14 +584,14 @@
         <v>1588.17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="46.8">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -616,13 +599,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -636,7 +619,7 @@
         <v>5.8005399999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>100</v>
       </c>
@@ -650,7 +633,7 @@
         <v>1.9725200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -664,7 +647,7 @@
         <v>152.119</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>2500</v>
       </c>
@@ -678,7 +661,7 @@
         <v>966.17899999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>5000</v>
       </c>
@@ -692,19 +675,19 @@
         <v>3889.45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -713,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -727,7 +710,7 @@
         <v>7.7018699999999995E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>100</v>
       </c>
@@ -741,7 +724,7 @@
         <v>1.1001799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>1000</v>
       </c>
@@ -755,7 +738,7 @@
         <v>71.467500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>2500</v>
       </c>
@@ -769,7 +752,7 @@
         <v>422.05599999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>5000</v>
       </c>
@@ -783,28 +766,28 @@
         <v>1597.59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="46.8">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -818,7 +801,7 @@
         <v>0.24932399999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>100</v>
       </c>
@@ -832,12 +815,12 @@
         <v>33.369999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>1000</v>
       </c>
       <c r="B31" s="1">
-        <v>42.8962</v>
+        <v>82.896199999999993</v>
       </c>
       <c r="C31" s="2">
         <v>146.471</v>
@@ -846,12 +829,12 @@
         <v>8786.3799999999992</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>2500</v>
       </c>
       <c r="B32" s="1">
-        <v>242.756</v>
+        <v>488.75599999999997</v>
       </c>
       <c r="C32" s="2">
         <v>874.47699999999998</v>
@@ -860,12 +843,12 @@
         <v>111378</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>5000</v>
       </c>
       <c r="B33" s="1">
-        <v>923.072</v>
+        <v>1904.0719999999999</v>
       </c>
       <c r="C33" s="2">
         <v>3492.45</v>
@@ -874,15 +857,15 @@
         <v>802344</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -893,7 +876,7 @@
         <v>6.73985E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>100</v>
       </c>
@@ -904,7 +887,7 @@
         <v>1.68479</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>1000</v>
       </c>
@@ -915,7 +898,7 @@
         <v>42.8962</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>2500</v>
       </c>
@@ -926,7 +909,7 @@
         <v>242.756</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>5000</v>
       </c>

--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond MLD\Desktop\hash_table_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D2EF9E-3943-432D-8D7F-27613F304373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A777D-C6E7-4EF4-A468-1E5B7D3404B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
   </bookViews>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E6911-EAE5-CC40-BC10-4C97D05DCEEB}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -519,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>6.3592700000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>6.7282599999999998E-2</v>
@@ -533,7 +533,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="1">
-        <v>1.86934</v>
+        <v>2.6683300000000001</v>
       </c>
       <c r="C6" s="2">
         <v>2.6629900000000002</v>
@@ -547,7 +547,7 @@
         <v>1000</v>
       </c>
       <c r="B7" s="1">
-        <v>78.457999999999998</v>
+        <v>173.71700000000001</v>
       </c>
       <c r="C7" s="2">
         <v>172.08600000000001</v>
@@ -561,7 +561,7 @@
         <v>2500</v>
       </c>
       <c r="B8" s="1">
-        <v>460.96699999999998</v>
+        <v>665.11699999999996</v>
       </c>
       <c r="C8" s="2">
         <v>1056.6500000000001</v>
@@ -575,7 +575,7 @@
         <v>5000</v>
       </c>
       <c r="B9" s="1">
-        <v>1790.43</v>
+        <v>1344.38</v>
       </c>
       <c r="C9" s="2">
         <v>4210.43</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>0.14088899999999999</v>
+        <v>0.33533299999999999</v>
       </c>
       <c r="C13" s="2">
         <v>0.29895500000000003</v>
@@ -624,7 +624,7 @@
         <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>30.189499999999999</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="C14" s="2">
         <v>29.279499999999999</v>
@@ -638,7 +638,7 @@
         <v>1000</v>
       </c>
       <c r="B15" s="1">
-        <v>8183.25</v>
+        <v>133.40600000000001</v>
       </c>
       <c r="C15" s="2">
         <v>7522.15</v>
@@ -652,7 +652,7 @@
         <v>2500</v>
       </c>
       <c r="B16" s="1">
-        <v>109004</v>
+        <v>380.65</v>
       </c>
       <c r="C16" s="2">
         <v>100432</v>
@@ -666,7 +666,7 @@
         <v>5000</v>
       </c>
       <c r="B17" s="1">
-        <v>815626</v>
+        <v>747.04</v>
       </c>
       <c r="C17" s="2">
         <v>783653</v>
@@ -820,7 +820,7 @@
         <v>1000</v>
       </c>
       <c r="B31" s="1">
-        <v>82.896199999999993</v>
+        <v>42.8962</v>
       </c>
       <c r="C31" s="2">
         <v>146.471</v>
@@ -834,7 +834,7 @@
         <v>2500</v>
       </c>
       <c r="B32" s="1">
-        <v>488.75599999999997</v>
+        <v>242.756</v>
       </c>
       <c r="C32" s="2">
         <v>874.47699999999998</v>
@@ -848,7 +848,7 @@
         <v>5000</v>
       </c>
       <c r="B33" s="1">
-        <v>1904.0719999999999</v>
+        <v>923.072</v>
       </c>
       <c r="C33" s="2">
         <v>3492.45</v>

--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond MLD\Desktop\hash_table_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A777D-C6E7-4EF4-A468-1E5B7D3404B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BD4084-5D35-42DF-8F82-C6136CC36C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
   </bookViews>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E6911-EAE5-CC40-BC10-4C97D05DCEEB}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -519,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>0.33533299999999999</v>
       </c>
       <c r="C5" s="2">
         <v>6.7282599999999998E-2</v>
@@ -533,7 +533,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="1">
-        <v>2.6683300000000001</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="C6" s="2">
         <v>2.6629900000000002</v>
@@ -547,7 +547,7 @@
         <v>1000</v>
       </c>
       <c r="B7" s="1">
-        <v>173.71700000000001</v>
+        <v>133.40600000000001</v>
       </c>
       <c r="C7" s="2">
         <v>172.08600000000001</v>
@@ -561,7 +561,7 @@
         <v>2500</v>
       </c>
       <c r="B8" s="1">
-        <v>665.11699999999996</v>
+        <v>380.65</v>
       </c>
       <c r="C8" s="2">
         <v>1056.6500000000001</v>
@@ -575,7 +575,7 @@
         <v>5000</v>
       </c>
       <c r="B9" s="1">
-        <v>1344.38</v>
+        <v>747.04</v>
       </c>
       <c r="C9" s="2">
         <v>4210.43</v>
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>9.7114699999999998E-2</v>
+        <v>6.73985E-2</v>
       </c>
       <c r="C21" s="2">
         <v>7.4871999999999994E-2</v>
@@ -715,7 +715,7 @@
         <v>100</v>
       </c>
       <c r="B22" s="1">
-        <v>1.40456</v>
+        <v>1.68479</v>
       </c>
       <c r="C22" s="2">
         <v>2.0514000000000001</v>
@@ -729,7 +729,7 @@
         <v>1000</v>
       </c>
       <c r="B23" s="1">
-        <v>80.967699999999994</v>
+        <v>42.8962</v>
       </c>
       <c r="C23" s="2">
         <v>177.97200000000001</v>
@@ -743,7 +743,7 @@
         <v>2500</v>
       </c>
       <c r="B24" s="1">
-        <v>482.85199999999998</v>
+        <v>242.756</v>
       </c>
       <c r="C24" s="2">
         <v>1116.4100000000001</v>
@@ -757,7 +757,7 @@
         <v>5000</v>
       </c>
       <c r="B25" s="1">
-        <v>1899.09</v>
+        <v>923.072</v>
       </c>
       <c r="C25" s="2">
         <v>4231.8100000000004</v>

--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond MLD\Desktop\hash_table_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BD4084-5D35-42DF-8F82-C6136CC36C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FF200C-0C4F-4C0A-8205-02DA681400A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>All avg in 10 times with random string size of 100 characters per element</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Insertion with Rehash (ms)</t>
+  </si>
+  <si>
+    <t>Tombstone</t>
+  </si>
+  <si>
+    <t>Rehashing</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E6911-EAE5-CC40-BC10-4C97D05DCEEB}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -479,31 +485,29 @@
     <col min="3" max="9" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.05" customHeight="1">
+    <row r="1" spans="1:8" ht="25.05" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1">
+    <row r="2" spans="1:8" ht="25.05" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="31.95" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,8 +517,15 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -527,8 +538,17 @@
       <c r="D5" s="2">
         <v>5.6904200000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.7282599999999998E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.8005399999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -541,8 +561,17 @@
       <c r="D6" s="2">
         <v>1.1275500000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.6629900000000002</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.9725200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>1000</v>
       </c>
@@ -555,8 +584,17 @@
       <c r="D7" s="2">
         <v>70.989400000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>172.08600000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>152.119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>2500</v>
       </c>
@@ -569,8 +607,17 @@
       <c r="D8" s="2">
         <v>402.05099999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1056.6500000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>966.17899999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>5000</v>
       </c>
@@ -583,18 +630,25 @@
       <c r="D9" s="2">
         <v>1588.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4210.43</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3889.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="46.8">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:8" ht="46.8">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -604,8 +658,15 @@
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -618,8 +679,17 @@
       <c r="D13" s="2">
         <v>5.8005399999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.6904200000000002E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.29895500000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>100</v>
       </c>
@@ -632,8 +702,17 @@
       <c r="D14" s="2">
         <v>1.9725200000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.1275500000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>29.279499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -646,8 +725,17 @@
       <c r="D15" s="2">
         <v>152.119</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>70.989400000000003</v>
+      </c>
+      <c r="H15" s="2">
+        <v>7522.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>2500</v>
       </c>
@@ -660,8 +748,17 @@
       <c r="D16" s="2">
         <v>966.17899999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G16" s="2">
+        <v>402.05099999999999</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>5000</v>
       </c>
@@ -674,15 +771,24 @@
       <c r="D17" s="2">
         <v>3889.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F17" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1588.17</v>
+      </c>
+      <c r="H17" s="2">
+        <v>783653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="31.2">
+    <row r="20" spans="1:8" ht="31.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -710,7 +816,7 @@
         <v>7.7018699999999995E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>100</v>
       </c>
@@ -724,7 +830,7 @@
         <v>1.1001799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>1000</v>
       </c>
@@ -738,7 +844,7 @@
         <v>71.467500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>2500</v>
       </c>
@@ -752,7 +858,7 @@
         <v>422.05599999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>5000</v>
       </c>
@@ -766,14 +872,14 @@
         <v>1597.59</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="46.8">
+    <row r="28" spans="1:8" ht="46.8">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -787,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -801,7 +907,7 @@
         <v>0.24932399999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>100</v>
       </c>
@@ -815,7 +921,7 @@
         <v>33.369999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>1000</v>
       </c>
@@ -829,7 +935,7 @@
         <v>8786.3799999999992</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>2500</v>
       </c>

--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond MLD\Desktop\hash_table_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/hash_table_experiments_with_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FF200C-0C4F-4C0A-8205-02DA681400A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAF496-90CD-EE44-9816-7FF23031A332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
+    <workbookView xWindow="-940" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>All avg in 10 times with random string size of 100 characters per element</t>
   </si>
@@ -79,13 +79,19 @@
   </si>
   <si>
     <t>Rehashing</t>
+  </si>
+  <si>
+    <t>Linear Probing</t>
+  </si>
+  <si>
+    <t>Double Hashing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -474,39 +480,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E6911-EAE5-CC40-BC10-4C97D05DCEEB}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="9" width="26.296875" customWidth="1"/>
+    <col min="3" max="9" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.05" customHeight="1">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="25.05" customHeight="1">
+    <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="31.95" customHeight="1">
+    <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -525,7 +531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -548,7 +554,7 @@
         <v>5.8005399999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -571,7 +577,7 @@
         <v>1.9725200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1000</v>
       </c>
@@ -594,7 +600,7 @@
         <v>152.119</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2500</v>
       </c>
@@ -617,7 +623,7 @@
         <v>966.17899999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5000</v>
       </c>
@@ -640,14 +646,14 @@
         <v>3889.45</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="46.8">
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -666,7 +672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -689,7 +695,7 @@
         <v>0.29895500000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>100</v>
       </c>
@@ -712,7 +718,7 @@
         <v>29.279499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -735,7 +741,7 @@
         <v>7522.15</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2500</v>
       </c>
@@ -758,7 +764,7 @@
         <v>100432</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5000</v>
       </c>
@@ -781,14 +787,14 @@
         <v>783653</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="31.2">
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -801,8 +807,15 @@
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -815,8 +828,17 @@
       <c r="D21" s="2">
         <v>7.7018699999999995E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.73985E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.33533299999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>100</v>
       </c>
@@ -829,8 +851,17 @@
       <c r="D22" s="2">
         <v>1.1001799999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.68479</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1000</v>
       </c>
@@ -843,8 +874,17 @@
       <c r="D23" s="2">
         <v>71.467500000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="F23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>42.8962</v>
+      </c>
+      <c r="H23" s="1">
+        <v>133.40600000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2500</v>
       </c>
@@ -857,8 +897,17 @@
       <c r="D24" s="2">
         <v>422.05599999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="F24" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G24" s="1">
+        <v>242.756</v>
+      </c>
+      <c r="H24" s="1">
+        <v>380.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5000</v>
       </c>
@@ -871,15 +920,24 @@
       <c r="D25" s="2">
         <v>1597.59</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="F25" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>923.072</v>
+      </c>
+      <c r="H25" s="1">
+        <v>747.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="46.8">
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -892,8 +950,15 @@
       <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -906,8 +971,17 @@
       <c r="D29" s="2">
         <v>0.24932399999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="F29" s="1">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7.1205400000000002E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5.8005399999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>100</v>
       </c>
@@ -920,8 +994,17 @@
       <c r="D30" s="2">
         <v>33.369999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.23122</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.9725200000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1000</v>
       </c>
@@ -934,8 +1017,17 @@
       <c r="D31" s="2">
         <v>8786.3799999999992</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="F31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>146.471</v>
+      </c>
+      <c r="H31" s="2">
+        <v>152.119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2500</v>
       </c>
@@ -948,8 +1040,17 @@
       <c r="D32" s="2">
         <v>111378</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G32" s="2">
+        <v>874.47699999999998</v>
+      </c>
+      <c r="H32" s="2">
+        <v>966.17899999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>5000</v>
       </c>
@@ -962,16 +1063,32 @@
       <c r="D33" s="2">
         <v>802344</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F33" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3492.45</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3889.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -981,8 +1098,17 @@
       <c r="C37" s="1">
         <v>6.73985E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37" s="1">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7.7018699999999995E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5.6904200000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>100</v>
       </c>
@@ -992,8 +1118,17 @@
       <c r="C38" s="1">
         <v>1.68479</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.1001799999999999</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1.1275500000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1000</v>
       </c>
@@ -1003,8 +1138,17 @@
       <c r="C39" s="1">
         <v>42.8962</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="2">
+        <v>71.467500000000001</v>
+      </c>
+      <c r="H39" s="2">
+        <v>70.989400000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2500</v>
       </c>
@@ -1014,8 +1158,17 @@
       <c r="C40" s="1">
         <v>242.756</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G40" s="2">
+        <v>422.05599999999998</v>
+      </c>
+      <c r="H40" s="2">
+        <v>402.05099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>5000</v>
       </c>
@@ -1024,6 +1177,15 @@
       </c>
       <c r="C41" s="1">
         <v>923.072</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1597.59</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1588.17</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/hash_table_experiments_with_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAF496-90CD-EE44-9816-7FF23031A332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084E26B-A0BA-4541-AD35-35801026699B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-940" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{C0CCEC53-EF35-AC4F-9778-0F0F213AF4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E6911-EAE5-CC40-BC10-4C97D05DCEEB}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
